--- a/data/output/Pedido_Semana_07_21022026_vivero.xlsx
+++ b/data/output/Pedido_Semana_07_21022026_vivero.xlsx
@@ -909,7 +909,7 @@
         <v>0</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S5" s="2" t="n">
         <v>0</v>
@@ -990,7 +990,7 @@
         <v>3</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S6" s="2" t="n">
         <v>0</v>
@@ -1152,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S8" s="2" t="n">
         <v>0</v>
@@ -1233,13 +1233,13 @@
         <v>0</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S9" s="2" t="n">
         <v>1</v>
       </c>
       <c r="T9" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U9" s="8" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S10" s="2" t="n">
         <v>0</v>
@@ -1395,7 +1395,7 @@
         <v>2</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S11" s="2" t="n">
         <v>0</v>
@@ -1557,7 +1557,7 @@
         <v>0</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S13" s="2" t="n">
         <v>0</v>
@@ -1800,7 +1800,7 @@
         <v>0</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S16" s="2" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S22" s="2" t="n">
         <v>0</v>
@@ -2367,7 +2367,7 @@
         <v>2</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S23" s="2" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>5</v>
       </c>
       <c r="R25" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S25" s="2" t="n">
         <v>0</v>
@@ -3501,7 +3501,7 @@
         <v>3</v>
       </c>
       <c r="R37" s="2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="S37" s="2" t="n">
         <v>0</v>
@@ -3663,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="R39" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S39" s="2" t="n">
         <v>0</v>
@@ -4311,7 +4311,7 @@
         <v>0</v>
       </c>
       <c r="R47" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S47" s="2" t="n">
         <v>0</v>
